--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="98">
   <si>
     <t>土地坐落</t>
   </si>
@@ -241,6 +241,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>互盛</t>
   </si>
   <si>
@@ -257,6 +266,9 @@
   </si>
   <si>
     <t>怡星資訊股份有限公司</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1579,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1604,13 +1616,22 @@
       <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1627,13 +1648,22 @@
       <c r="G2" s="2">
         <v>150150</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1650,13 +1680,22 @@
       <c r="G3" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1673,13 +1712,22 @@
       <c r="G4" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1696,13 +1744,22 @@
       <c r="G5" s="2">
         <v>227970</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -1719,13 +1776,22 @@
       <c r="G6" s="2">
         <v>440000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1741,6 +1807,15 @@
       </c>
       <c r="G7" s="2">
         <v>980000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -1758,22 +1833,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -1784,13 +1859,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1810,13 +1885,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -1836,13 +1911,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -1875,19 +1950,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1895,13 +1970,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -1910,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -241,6 +241,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
   </si>
   <si>
     <t>怡星資訊股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-20</t>
@@ -1591,13 +1597,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1625,13 +1631,16 @@
       <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1649,21 +1658,24 @@
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1681,21 +1693,24 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1713,21 +1728,24 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1745,21 +1763,24 @@
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -1777,21 +1798,24 @@
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1365</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1809,12 +1833,15 @@
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1365</v>
       </c>
     </row>
@@ -1833,22 +1860,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -1859,13 +1886,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1885,13 +1912,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -1911,13 +1938,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -1950,19 +1977,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1970,13 +1997,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -1985,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="105">
   <si>
     <t>土地坐落</t>
   </si>
@@ -244,6 +244,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -253,6 +256,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>互盛</t>
   </si>
   <si>
@@ -274,7 +283,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmpe52e1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1597,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1634,13 +1649,22 @@
       <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1658,24 +1682,33 @@
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="2">
         <v>84</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1693,24 +1726,33 @@
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1728,24 +1770,33 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1763,24 +1814,33 @@
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -1798,24 +1858,33 @@
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1365</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1833,16 +1902,25 @@
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1365</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1860,22 +1938,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -1886,13 +1964,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1912,13 +1990,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -1938,13 +2016,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -1977,19 +2055,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1997,13 +2075,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -2012,7 +2090,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,9 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="105">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="110">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市松山區吳興段二小段05750000地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段一小段00520012地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段三小段08400000地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段00410000地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段004]0000地號</t>
+  </si>
+  <si>
+    <t>10000分之154</t>
+  </si>
+  <si>
+    <t>10000分之195</t>
+  </si>
+  <si>
+    <t>85659分之7217</t>
+  </si>
+  <si>
+    <t>20000分之263</t>
+  </si>
+  <si>
+    <t>費鴻泰</t>
+  </si>
+  <si>
+    <t>王怡心</t>
+  </si>
+  <si>
+    <t>75年10月30日</t>
+  </si>
+  <si>
+    <t>79年09月15日</t>
+  </si>
+  <si>
+    <t>87年12月10臼</t>
+  </si>
+  <si>
+    <t>96年06月20日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>ccdsK貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmpe52e1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,82 +151,25 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市松山區吳興段二小段 0575-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段一小段 0052-0012 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段三小段 0840-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段 0041-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段 004]-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 154</t>
-  </si>
-  <si>
-    <t>10000分之 195</t>
-  </si>
-  <si>
-    <t>85659分之 7217</t>
-  </si>
-  <si>
-    <t>20000分之 263</t>
-  </si>
-  <si>
-    <t>費鴻泰</t>
-  </si>
-  <si>
-    <t>王怡心</t>
-  </si>
-  <si>
-    <t>75年10月 30日</t>
-  </si>
-  <si>
-    <t>79年09月 15日</t>
-  </si>
-  <si>
-    <t>87年12月 10臼</t>
-  </si>
-  <si>
-    <t>96年06月 20日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>ccd-sK 貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市松山區吳興段二小段 01198-000 建號(4 樓）</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段--小段 04816-000 建號(4 樓 ’ 5 樓）</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段一小段 04880 - 000建號(地下室停車位)</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段三小段 03504-000建號(平台9.24平方 公尺，花台0.64平方公尺）</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段 01312-000 建號(6 樓）</t>
-  </si>
-  <si>
-    <t>臺北市內湖區西湖段四小段 01316-000建號(地下層第三層</t>
-  </si>
-  <si>
-    <t>臺北市内湖區西湖段四小段 01316-000建號(地下層第三層 停車位2個）</t>
+    <t>臺北市松山區吳興段二小段01198000建號(4樓）</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段小段04816000建號(4樓5樓）</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段一小段04880000建號(地下室停車位)</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段三小段03504000建號(平台9.24平方公尺花台0.64平方公尺）</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段01312000建號(6樓）</t>
+  </si>
+  <si>
+    <t>臺北市內湖區西湖段四小段01316000建號(地下層第三層</t>
+  </si>
+  <si>
+    <t>臺北市内湖區西湖段四小段01316000建號(地下層第三層停車位2個）</t>
   </si>
   <si>
     <t>全部</t>
@@ -145,13 +196,13 @@
     <t>王恰心</t>
   </si>
   <si>
-    <t>79年09月 15 H</t>
-  </si>
-  <si>
-    <t>87年12月 10曰</t>
-  </si>
-  <si>
-    <t>96年06月 20 □</t>
+    <t>79年09月15H</t>
+  </si>
+  <si>
+    <t>87年12月10曰</t>
+  </si>
+  <si>
+    <t>96年06月20□</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -163,16 +214,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>□產 TEANA</t>
-  </si>
-  <si>
-    <t>日產 BLURBIRD</t>
+    <t>□產TEANA</t>
+  </si>
+  <si>
+    <t>日產BLURBIRD</t>
   </si>
   <si>
     <t>乇恰心</t>
   </si>
   <si>
-    <t>101 年 04 月19曰</t>
+    <t>101年04月19曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -223,12 +274,6 @@
     <t>費〇德</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -241,27 +286,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>互盛</t>
   </si>
   <si>
@@ -283,15 +307,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-20</t>
-  </si>
-  <si>
-    <t>tmpe52e1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -310,7 +325,7 @@
     <t>友邦巨人基金</t>
   </si>
   <si>
-    <t>友邦證券投資 信託股份有限 公司</t>
+    <t>友邦證券投資信託股份有限公司</t>
   </si>
   <si>
     <t>債務人</t>
@@ -331,7 +346,7 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>國泰世華 臺北市内湖區内湖路</t>
+    <t>國泰世華臺北市内湖區内湖路</t>
   </si>
   <si>
     <t>買房子</t>
@@ -693,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,135 +736,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1927</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>436</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>2807.04</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>17350000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2807.04</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>17350000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -867,25 +1008,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -893,25 +1034,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>91.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -919,25 +1060,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>161.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -945,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>802.83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -971,25 +1112,25 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>73.89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -997,22 +1138,22 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>244.42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>14350000</v>
@@ -1023,22 +1164,22 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>244.42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2">
         <v>14350000</v>
@@ -1049,22 +1190,22 @@
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>5964.77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2">
         <v>3000000</v>
@@ -1075,22 +1216,22 @@
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>5964.77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2">
         <v>3000000</v>
@@ -1111,22 +1252,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1134,19 +1275,19 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>2496</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>903200</v>
@@ -1157,19 +1298,19 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1997</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>591200</v>
@@ -1190,19 +1331,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1210,16 +1351,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>1585097</v>
@@ -1230,16 +1371,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>369</v>
@@ -1250,16 +1391,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>1979543</v>
@@ -1270,16 +1411,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>2000000</v>
@@ -1290,16 +1431,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>42426</v>
@@ -1310,16 +1451,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>21984</v>
@@ -1330,16 +1471,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2">
         <v>359021</v>
@@ -1350,16 +1491,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>4500000</v>
@@ -1370,16 +1511,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>423074</v>
@@ -1390,16 +1531,16 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>2000000</v>
@@ -1410,16 +1551,16 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>21053</v>
@@ -1430,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>500000</v>
@@ -1450,16 +1591,16 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>707142</v>
@@ -1470,16 +1611,16 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>1173281</v>
@@ -1490,16 +1631,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>6904</v>
@@ -1510,16 +1651,16 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2">
         <v>154887</v>
@@ -1530,16 +1671,16 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>121452</v>
@@ -1550,16 +1691,16 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2">
         <v>2000000</v>
@@ -1570,16 +1711,16 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
         <v>1900000</v>
@@ -1590,16 +1731,16 @@
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
         <v>10548</v>
@@ -1620,43 +1761,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1664,10 +1805,10 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>15015</v>
@@ -1676,28 +1817,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1365</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2">
         <v>84</v>
@@ -1708,10 +1849,10 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1720,28 +1861,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1365</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2">
         <v>85</v>
@@ -1752,10 +1893,10 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>20000</v>
@@ -1764,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1365</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2">
         <v>86</v>
@@ -1796,10 +1937,10 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>22797</v>
@@ -1808,28 +1949,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1365</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2">
         <v>87</v>
@@ -1840,10 +1981,10 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
         <v>44000</v>
@@ -1852,28 +1993,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1365</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2">
         <v>88</v>
@@ -1884,10 +2025,10 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>98000</v>
@@ -1896,28 +2037,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1365</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2">
         <v>89</v>
@@ -1938,25 +2079,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1964,13 +2105,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -1979,7 +2120,7 @@
         <v>6.96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>20403.94</v>
@@ -1990,13 +2131,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -2005,7 +2146,7 @@
         <v>6.96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>94428.41</v>
@@ -2016,13 +2157,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -2031,7 +2172,7 @@
         <v>6.96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>142769.09</v>
@@ -2052,22 +2193,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2075,22 +2216,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -190,16 +190,19 @@
     <t>96年06月20□</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>□產TEANA</t>
   </si>
   <si>
+    <t>日產BLURBIRD</t>
+  </si>
+  <si>
     <t>乇恰心</t>
   </si>
   <si>
     <t>101年04月19曰</t>
-  </si>
-  <si>
-    <t>日產BLURBIRD</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -1454,47 +1457,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1">
-        <v>2496</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1">
-        <v>903200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>2496</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1502,13 +1526,34 @@
       <c r="G2" s="2">
         <v>903200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>1997</v>
@@ -1517,13 +1562,34 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>591200</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1541,13 +1607,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1561,13 +1627,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1581,13 +1647,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1601,13 +1667,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1621,13 +1687,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1641,13 +1707,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1661,13 +1727,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1681,13 +1747,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
@@ -1701,13 +1767,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1721,13 +1787,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1741,13 +1807,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1761,13 +1827,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1781,13 +1847,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1801,13 +1867,13 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1821,13 +1887,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1841,13 +1907,13 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1861,16 +1927,16 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2">
         <v>154887</v>
@@ -1881,13 +1947,13 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1901,13 +1967,13 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
@@ -1921,13 +1987,13 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -1941,13 +2007,13 @@
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -1977,13 +2043,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2015,7 +2081,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2027,13 +2093,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2059,7 +2125,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2071,13 +2137,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2103,7 +2169,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2115,13 +2181,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2147,7 +2213,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2159,13 +2225,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2191,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -2203,13 +2269,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2235,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2247,13 +2313,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2289,13 +2355,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -2304,7 +2370,7 @@
         <v>6.96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1">
         <v>20403.94</v>
@@ -2315,13 +2381,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2330,7 +2396,7 @@
         <v>6.96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
         <v>20403.94</v>
@@ -2341,13 +2407,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -2356,7 +2422,7 @@
         <v>6.96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2">
         <v>94428.41</v>
@@ -2367,13 +2433,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -2382,7 +2448,7 @@
         <v>6.96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2">
         <v>142769.09</v>
@@ -2403,13 +2469,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>12029020</v>
@@ -2418,7 +2484,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2426,13 +2492,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -2441,7 +2507,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -190,6 +190,9 @@
     <t>96年06月20□</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>101年04月19曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -1052,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>35</v>
@@ -1105,7 +1111,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -1158,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -1211,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -1264,7 +1270,7 @@
         <v>14350000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>35</v>
@@ -1317,7 +1323,7 @@
         <v>14350000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -1370,7 +1376,7 @@
         <v>3000000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>35</v>
@@ -1423,7 +1429,7 @@
         <v>3000000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>35</v>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1509,16 +1515,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2496</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
@@ -1527,7 +1533,7 @@
         <v>903200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -1553,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <v>1997</v>
@@ -1562,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
@@ -1571,7 +1577,7 @@
         <v>591200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -1607,13 +1613,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>25</v>
@@ -1627,13 +1633,13 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1647,13 +1653,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1667,13 +1673,13 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1687,13 +1693,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1707,13 +1713,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1727,13 +1733,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1747,13 +1753,13 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
@@ -1767,13 +1773,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1787,13 +1793,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1807,13 +1813,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1827,13 +1833,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1847,13 +1853,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1867,13 +1873,13 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1887,13 +1893,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1907,13 +1913,13 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1927,16 +1933,16 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2">
         <v>154887</v>
@@ -1947,13 +1953,13 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1967,13 +1973,13 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
@@ -1987,13 +1993,13 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -2007,13 +2013,13 @@
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -2043,13 +2049,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2081,7 +2087,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2093,13 +2099,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2125,7 +2131,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2137,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2169,7 +2175,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2181,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2213,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2225,13 +2231,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2257,7 +2263,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -2269,13 +2275,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2301,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2313,13 +2319,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2355,13 +2361,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -2370,7 +2376,7 @@
         <v>6.96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1">
         <v>20403.94</v>
@@ -2381,13 +2387,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2396,7 +2402,7 @@
         <v>6.96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2">
         <v>20403.94</v>
@@ -2407,13 +2413,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -2422,7 +2428,7 @@
         <v>6.96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2">
         <v>94428.41</v>
@@ -2433,13 +2439,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -2448,7 +2454,7 @@
         <v>6.96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2">
         <v>142769.09</v>
@@ -2469,13 +2475,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>12029020</v>
@@ -2484,7 +2490,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2492,13 +2498,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -2507,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -211,49 +211,58 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>元大商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>元大商業銀行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>費〇德</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>互盛</t>
@@ -1605,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1622,24 +1631,45 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1585097</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1647,19 +1677,40 @@
       <c r="F2" s="2">
         <v>1585097</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1667,19 +1718,40 @@
       <c r="F3" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1687,19 +1759,40 @@
       <c r="F4" s="2">
         <v>1979543</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1707,19 +1800,40 @@
       <c r="F5" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1727,19 +1841,40 @@
       <c r="F6" s="2">
         <v>42426</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1747,19 +1882,40 @@
       <c r="F7" s="2">
         <v>21984</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
@@ -1767,19 +1923,40 @@
       <c r="F8" s="2">
         <v>359021</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1787,19 +1964,40 @@
       <c r="F9" s="2">
         <v>4500000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1807,19 +2005,40 @@
       <c r="F10" s="2">
         <v>423074</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1827,19 +2046,40 @@
       <c r="F11" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1847,19 +2087,40 @@
       <c r="F12" s="2">
         <v>21053</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1867,19 +2128,40 @@
       <c r="F13" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1887,19 +2169,40 @@
       <c r="F14" s="2">
         <v>707142</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1907,19 +2210,40 @@
       <c r="F15" s="2">
         <v>1173281</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1927,39 +2251,81 @@
       <c r="F16" s="2">
         <v>6904</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2">
         <v>154887</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1967,19 +2333,40 @@
       <c r="F18" s="2">
         <v>121452</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
@@ -1987,19 +2374,40 @@
       <c r="F19" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -2007,25 +2415,67 @@
       <c r="F20" s="2">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="2">
         <v>10548</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2049,13 +2499,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2087,7 +2537,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -2099,13 +2549,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>150150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -2131,7 +2581,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -2143,13 +2593,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>35</v>
@@ -2175,7 +2625,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2187,13 +2637,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -2219,7 +2669,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2231,13 +2681,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>227970</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>35</v>
@@ -2263,7 +2713,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -2275,13 +2725,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2">
         <v>440000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>35</v>
@@ -2307,7 +2757,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2319,13 +2769,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2">
         <v>980000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -2361,13 +2811,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>2931.6</v>
@@ -2376,7 +2826,7 @@
         <v>6.96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1">
         <v>20403.94</v>
@@ -2387,13 +2837,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2402,7 +2852,7 @@
         <v>6.96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2">
         <v>20403.94</v>
@@ -2413,13 +2863,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -2428,7 +2878,7 @@
         <v>6.96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2">
         <v>94428.41</v>
@@ -2439,13 +2889,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -2454,7 +2904,7 @@
         <v>6.96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2">
         <v>142769.09</v>
@@ -2475,13 +2925,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>12029020</v>
@@ -2490,7 +2940,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2498,13 +2948,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -2513,7 +2963,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -286,10 +286,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>友邦巨人基金</t>
   </si>
   <si>
     <t>友邦證券投資信託股份有限公司</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -2803,47 +2809,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2931.6</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6.96</v>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1">
-        <v>20403.94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>2931.6</v>
@@ -2857,19 +2884,40 @@
       <c r="H2" s="2">
         <v>20403.94</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>13567.3</v>
@@ -2883,19 +2931,40 @@
       <c r="H3" s="2">
         <v>94428.41</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>20512.8</v>
@@ -2908,6 +2977,27 @@
       </c>
       <c r="H4" s="2">
         <v>142769.09</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2925,13 +3015,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1">
         <v>12029020</v>
@@ -2940,7 +3030,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2948,13 +3038,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -2963,7 +3053,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
+++ b/legislator/property/output/normal/費鴻泰_2012-04-20_財產申報表_tmpe52e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -298,6 +298,12 @@
     <t>fund</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -305,6 +311,9 @@
   </si>
   <si>
     <t>買房子</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3007,44 +3016,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1">
-        <v>12029020</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>12029020</v>
@@ -3053,7 +3083,28 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1365</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
